--- a/biology/Zoologie/Grimpar_à_gorge_tachetée/Grimpar_à_gorge_tachetée.xlsx
+++ b/biology/Zoologie/Grimpar_à_gorge_tachetée/Grimpar_à_gorge_tachetée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_gorge_tachet%C3%A9e</t>
+          <t>Grimpar_à_gorge_tachetée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Certhiasomus stictolaemus
 Le Grimpar à gorge tachetée (Certhiasomus stictolaemus) est une espèce de passereaux de la famille des Furnariidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_gorge_tachet%C3%A9e</t>
+          <t>Grimpar_à_gorge_tachetée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, en Guyane, au Pérou et au Venezuela[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, en Guyane, au Pérou et au Venezuela.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_gorge_tachet%C3%A9e</t>
+          <t>Grimpar_à_gorge_tachetée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (18 avril 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (18 avril 2024) :
 Certhiasomus stictolaema clarior Zimmer, 1929
 Certhiasomus stictolaema secunda Hellmayr, 1904
 Certhiasomus stictolaema stictolaema (Pelzeln, 1868)</t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_gorge_tachet%C3%A9e</t>
+          <t>Grimpar_à_gorge_tachetée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +592,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Certhiasomus stictolaemus (Pelzeln, 1868)[3]. À noter que certaines sources (telles que Animal Diversity Web, Catalogue of Life…) continuent de classer cette espèce sous le taxon Deconychura stictolaema[4],[5].
-L'espèce a été initialement classée dans le genre Sittasomus sous le protonyme Sittasomus stictolaemus Pelzeln, 1868[2],[6].
-Le genre Certhiasomus a été créé en 2010 par Elizabeth P. Derryberry (d), Santiago Claramunt (d), Robert T. Chesser (d), Alexandre L. P. Aleixo (d), Joel L. Cracraft (d), Robert G. Moyle (d) et Robb T. Brumfield (d)[3],[7].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grimpar à gorge tachetée[2].
-Certhiasomus stictolaemus a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Certhiasomus stictolaemus (Pelzeln, 1868). À noter que certaines sources (telles que Animal Diversity Web, Catalogue of Life…) continuent de classer cette espèce sous le taxon Deconychura stictolaema,.
+L'espèce a été initialement classée dans le genre Sittasomus sous le protonyme Sittasomus stictolaemus Pelzeln, 1868,.
+Le genre Certhiasomus a été créé en 2010 par Elizabeth P. Derryberry (d), Santiago Claramunt (d), Robert T. Chesser (d), Alexandre L. P. Aleixo (d), Joel L. Cracraft (d), Robert G. Moyle (d) et Robb T. Brumfield (d),.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grimpar à gorge tachetée.
+Certhiasomus stictolaemus a pour synonymes :
 Deconychura stictolaema (Pelzeln, 1868)
 Sittasomus stictolaemus Pelzeln, 1868</t>
         </is>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_gorge_tachet%C3%A9e</t>
+          <t>Grimpar_à_gorge_tachetée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Certhiasomus, dérive du grec ancien κέρθιος, kérthios, « grimpereau », et σῶμα, sỗma, « corps », et fait référence à la ressemblance morphologique de l'espèce Certhiasomus stictolaemus avec celles de la famille des Certhiidae[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Certhiasomus, dérive du grec ancien κέρθιος, kérthios, « grimpereau », et σῶμα, sỗma, « corps », et fait référence à la ressemblance morphologique de l'espèce Certhiasomus stictolaemus avec celles de la famille des Certhiidae.
 </t>
         </is>
       </c>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_gorge_tachet%C3%A9e</t>
+          <t>Grimpar_à_gorge_tachetée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Genre Certhiasomus :
 (en) Elizabeth Derryberry, Santiago Claramunt, R. Terry Chesser, Alexandre Aleixo, Joel Cracraft, Robert G. Moyle et Robb T. Brumfield, « Certhiasomus, a new genus of woodcreeper (Aves: Passeriformes: Dendrocolaptidae) », Zootaxa, Magnolia Press (d), vol. 2416, no 1,‎ 1er avril 2010, p. 44-50 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.2416.1.2, lire en ligne)
